--- a/Data Dictionaries.xlsx
+++ b/Data Dictionaries.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nimit\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sachi\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47EBAFB4-9E64-4179-8F19-4785E9C70E6C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37715EC4-51DD-4E97-9FD2-CBE71F9DA8FD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="134">
   <si>
     <t>Process Name</t>
   </si>
@@ -313,6 +313,120 @@
   </si>
   <si>
     <t>This returns the list of students and teachers enrolled in a particular classroom.</t>
+  </si>
+  <si>
+    <t>3.4 View Team Pane</t>
+  </si>
+  <si>
+    <t>Request Team Info</t>
+  </si>
+  <si>
+    <t>Request made by student or teacher to see different teams(for teacher) or the team of which they are member of(for students).</t>
+  </si>
+  <si>
+    <t>Team info(Team names, Submissions, Chat)</t>
+  </si>
+  <si>
+    <t>Request private chat (chat between team members)</t>
+  </si>
+  <si>
+    <t>Request sent by student to view chats.</t>
+  </si>
+  <si>
+    <t>3.6 View Private Chat</t>
+  </si>
+  <si>
+    <t>Respond to access private chat (chat between team members)</t>
+  </si>
+  <si>
+    <t>Database send chat info.</t>
+  </si>
+  <si>
+    <t>Chat details(message sent by student to its teammates)</t>
+  </si>
+  <si>
+    <t>Sends request to database to store the message sent by student.</t>
+  </si>
+  <si>
+    <t>3.8 Create Chat</t>
+  </si>
+  <si>
+    <t>Respond to create message for private chat(chat between teammates).</t>
+  </si>
+  <si>
+    <t>Chat info(By whom message is sent, time, message sent ).</t>
+  </si>
+  <si>
+    <t>Request  sent to database to render team chat (chat between team and teacher).</t>
+  </si>
+  <si>
+    <t>Sends request to database to render the messages stored.</t>
+  </si>
+  <si>
+    <t>3.7 View Team Chat</t>
+  </si>
+  <si>
+    <t>Respond to view team chat (chat between team and teacher).</t>
+  </si>
+  <si>
+    <t>Database responds to the request and render team chat.</t>
+  </si>
+  <si>
+    <t>Chat details</t>
+  </si>
+  <si>
+    <t>Request send by student to store the message for team chat.</t>
+  </si>
+  <si>
+    <t>Respond to store chat.</t>
+  </si>
+  <si>
+    <t>Database stores the message send by the user.</t>
+  </si>
+  <si>
+    <t>Chat data.</t>
+  </si>
+  <si>
+    <t>Database stores all the chats inside team database to premanently display the chat.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Request for submission </t>
+  </si>
+  <si>
+    <t>Request sent by team members in database to store their submissions.</t>
+  </si>
+  <si>
+    <t>3.9 Submit Project</t>
+  </si>
+  <si>
+    <t>Project details ( links, description of project) .</t>
+  </si>
+  <si>
+    <t>Team details.</t>
+  </si>
+  <si>
+    <t>To check(inside team database) whether a student is part of particular team or not .</t>
+  </si>
+  <si>
+    <t>3.5 Create Team</t>
+  </si>
+  <si>
+    <t>Request to create team.</t>
+  </si>
+  <si>
+    <t>Request sent by student to join a team.</t>
+  </si>
+  <si>
+    <t>Team details (name of team,team id).</t>
+  </si>
+  <si>
+    <t>Render team data.</t>
+  </si>
+  <si>
+    <t>From team database if a student is member of a particulat team then to render team details.</t>
+  </si>
+  <si>
+    <t>Team details (team name, team chat ,private chat, submissions).</t>
   </si>
 </sst>
 </file>
@@ -394,39 +508,12 @@
     </border>
     <border>
       <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="thin">
         <color auto="1"/>
       </right>
       <top style="thin">
         <color auto="1"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
       <bottom/>
       <diagonal/>
     </border>
@@ -452,33 +539,166 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="310">
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="thin">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical style="thin">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="thin">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical style="thin">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="thin">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -512,56 +732,5578 @@
       </border>
     </dxf>
     <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="thin">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical style="thin">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="thin">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical style="thin">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="thin">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="thin">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical style="thin">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="thin">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical style="thin">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="thin">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="thin">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical style="thin">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="thin">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical style="thin">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="thin">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="thin">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical style="thin">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="thin">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical style="thin">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="thin">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="thin">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical style="thin">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="thin">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical style="thin">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="thin">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="thin">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical style="thin">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="thin">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical style="thin">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="thin">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
     </dxf>
     <dxf>
       <border outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="thin">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical style="thin">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="thin">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical style="thin">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="thin">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="thin">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical style="thin">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="thin">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical style="thin">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="thin">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="thin">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical style="thin">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="thin">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical style="thin">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="thin">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="thin">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical style="thin">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="thin">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical style="thin">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="thin">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="thin">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical style="thin">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="thin">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical style="thin">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="thin">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="thin">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical style="thin">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="thin">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical style="thin">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="thin">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="thin">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical style="thin">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="thin">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical style="thin">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="thin">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="thin">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical style="thin">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="thin">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical style="thin">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="thin">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="thin">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical style="thin">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="thin">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical style="thin">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="thin">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="thin">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical style="thin">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="thin">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical style="thin">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="thin">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="thin">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical style="thin">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="thin">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical style="thin">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="thin">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="thin">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical style="thin">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="thin">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical style="thin">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="thin">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="thin">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical style="thin">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="thin">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical style="thin">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="thin">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="thin">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical style="thin">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="thin">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical style="thin">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="thin">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="thin">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical style="thin">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="thin">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical style="thin">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="thin">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="thin">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical style="thin">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="thin">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical style="thin">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="thin">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="thin">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical style="thin">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="thin">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical style="thin">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="thin">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="thin">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical style="thin">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="thin">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical style="thin">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="thin">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="thin">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical style="thin">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="thin">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical style="thin">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="thin">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical style="thin">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="thin">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical style="thin">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="thin">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="thin">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical style="thin">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="thin">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical style="thin">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="thin">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="thin">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical style="thin">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="thin">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical style="thin">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="thin">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="thin">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical style="thin">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="thin">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical style="thin">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="thin">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="thin">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical style="thin">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="thin">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical style="thin">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="thin">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="thin">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="thin">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical style="thin">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="thin">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical style="thin">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="thin">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="thin">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical style="thin">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="thin">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical style="thin">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="thin">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="thin">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical style="thin">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="thin">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical style="thin">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="thin">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="thin">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical style="thin">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="thin">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical style="thin">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="thin">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="thin">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical style="thin">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="thin">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical style="thin">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="thin">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="thin">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical style="thin">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="thin">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical style="thin">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="thin">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="thin">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical style="thin">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="thin">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical style="thin">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="thin">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="thin">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical style="thin">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="thin">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical style="thin">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="thin">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -595,22 +6337,442 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{F425B7F2-5A7C-44C4-B1E8-911815D08D32}" name="Table4" displayName="Table4" ref="A13:B16" headerRowCount="0" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{F425B7F2-5A7C-44C4-B1E8-911815D08D32}" name="Table4" displayName="Table4" ref="A13:B16" headerRowCount="0" totalsRowShown="0" headerRowDxfId="280" tableBorderDxfId="284" totalsRowBorderDxfId="283">
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{ACEE813D-CFBB-4BDA-B574-97AB3B5D6655}" name="Column1" headerRowDxfId="4" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{CA218878-67ED-452C-82F8-B00B3CECF8AE}" name="Column2"/>
+    <tableColumn id="1" xr3:uid="{ACEE813D-CFBB-4BDA-B574-97AB3B5D6655}" name="Column1" headerRowDxfId="309" dataDxfId="282"/>
+    <tableColumn id="2" xr3:uid="{CA218878-67ED-452C-82F8-B00B3CECF8AE}" name="Column2" dataDxfId="281"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{45D55AD9-065C-4F10-9A87-90B6CBF58D0D}" name="Table7911" displayName="Table7911" ref="A237:B241" headerRowCount="0" totalsRowShown="0" headerRowDxfId="248" tableBorderDxfId="247" totalsRowBorderDxfId="246">
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{6EB92296-E546-4BC2-8BFA-DF09571A8ACA}" name="Column1" headerRowDxfId="245" dataDxfId="244"/>
+    <tableColumn id="2" xr3:uid="{35E14054-2DC3-49EF-8474-E4BAA5EB0EFE}" name="Column2" headerRowDxfId="243" dataDxfId="242"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{D45E8EF4-0AD3-4D24-8E9A-75BD976516E0}" name="Table791012" displayName="Table791012" ref="A243:B247" headerRowCount="0" totalsRowShown="0" headerRowDxfId="241" tableBorderDxfId="240" totalsRowBorderDxfId="239">
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{579C741A-5307-488E-997A-49C15548D065}" name="Column1" headerRowDxfId="238" dataDxfId="237"/>
+    <tableColumn id="2" xr3:uid="{0EFC7D98-9298-4D7E-A4EB-7360D25474F6}" name="Column2" headerRowDxfId="236" dataDxfId="235"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{F5ABFB6A-833F-4E41-9143-4AD9FC5932A2}" name="Table791113" displayName="Table791113" ref="A249:B253" headerRowCount="0" totalsRowShown="0" headerRowDxfId="234" tableBorderDxfId="233" totalsRowBorderDxfId="232">
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{E78B4D1F-E922-4B26-9E01-7FF998F3D5E6}" name="Column1" headerRowDxfId="231" dataDxfId="230"/>
+    <tableColumn id="2" xr3:uid="{A2925FBE-45BC-4CA6-9285-C3953260162F}" name="Column2" headerRowDxfId="229" dataDxfId="228"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{5B78FE80-D838-4BB7-8B54-1318F777A49C}" name="Table79101214" displayName="Table79101214" ref="A255:B259" headerRowCount="0" totalsRowShown="0" headerRowDxfId="227" tableBorderDxfId="226" totalsRowBorderDxfId="225">
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{C28A23F6-8B93-464F-B34E-C7114CB1305F}" name="Column1" headerRowDxfId="224" dataDxfId="223"/>
+    <tableColumn id="2" xr3:uid="{74D59BD0-F1FD-4281-999B-1AEC0B8E828A}" name="Column2" headerRowDxfId="222" dataDxfId="221"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{AC95A53E-8CB1-4D8A-A7A4-7E84E956DE71}" name="Table79111315" displayName="Table79111315" ref="A261:B265" headerRowCount="0" totalsRowShown="0" headerRowDxfId="220" tableBorderDxfId="219" totalsRowBorderDxfId="218">
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{0CD53FDA-1624-4BCD-AE74-6200C9E30413}" name="Column1" headerRowDxfId="217" dataDxfId="216"/>
+    <tableColumn id="2" xr3:uid="{F5342A56-C23B-40B2-B308-6AB88948F1B8}" name="Column2" headerRowDxfId="215" dataDxfId="214"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{8BC901E3-F37F-4A0B-A7BA-778CCC53BF7C}" name="Table15" displayName="Table15" ref="A213:B217" headerRowCount="0" totalsRowShown="0" headerRowDxfId="208" headerRowBorderDxfId="212" tableBorderDxfId="213" totalsRowBorderDxfId="211">
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{E87C9C5D-68FC-4BEB-B3AA-E1A3B7E713E7}" name="Column1" headerRowDxfId="206" dataDxfId="210"/>
+    <tableColumn id="2" xr3:uid="{28EAF2CB-646A-4413-9956-1BAAD00017F7}" name="Column2" headerRowDxfId="207" dataDxfId="209"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{A747543C-239D-47A3-AB1D-F39317870C59}" name="Table16" displayName="Table16" ref="A207:B211" headerRowCount="0" totalsRowShown="0" headerRowDxfId="199" tableBorderDxfId="203" totalsRowBorderDxfId="202">
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{784C442F-985D-47AB-B114-B3FB44D6FF60}" name="Column1" headerRowDxfId="204" dataDxfId="201"/>
+    <tableColumn id="2" xr3:uid="{D4680F79-1188-43FA-A068-F3A42608716E}" name="Column2" headerRowDxfId="205" dataDxfId="200"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table17.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{DF66677D-83EB-4A0A-8F2C-86ACCCD7CD4E}" name="Table17" displayName="Table17" ref="A201:B205" headerRowCount="0" totalsRowShown="0" headerRowDxfId="192" tableBorderDxfId="196" totalsRowBorderDxfId="195">
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{D02D6430-D4DA-4546-A65C-A182EBCBD419}" name="Column1" headerRowDxfId="197" dataDxfId="194"/>
+    <tableColumn id="2" xr3:uid="{4A52EB7A-EEAE-4BA6-B6FD-D279FD8F603D}" name="Column2" headerRowDxfId="198" dataDxfId="193"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table18.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="18" xr:uid="{E8E79118-5647-4986-B467-C6FD25CE5AFA}" name="Table18" displayName="Table18" ref="A195:B199" headerRowCount="0" totalsRowShown="0" headerRowDxfId="186" headerRowBorderDxfId="190" tableBorderDxfId="191" totalsRowBorderDxfId="189">
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{04B8696C-2AD5-4763-98F1-106726FB5FD9}" name="Column1" headerRowDxfId="184" dataDxfId="188"/>
+    <tableColumn id="2" xr3:uid="{B4E82D26-A832-4373-ACF3-DBC6DEC05A68}" name="Column2" headerRowDxfId="185" dataDxfId="187"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table19.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="19" xr:uid="{23CC9331-A58A-4D0E-AAB6-CF5E4BE44C2B}" name="Table19" displayName="Table19" ref="A189:B193" headerRowCount="0" totalsRowShown="0" headerRowDxfId="177" tableBorderDxfId="181" totalsRowBorderDxfId="180">
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{C11184BC-5F35-4928-A396-0D2EE9D63F0C}" name="Column1" headerRowDxfId="182" dataDxfId="179"/>
+    <tableColumn id="2" xr3:uid="{4A9169F2-D181-4750-9C4B-29708AAF7424}" name="Column2" headerRowDxfId="183" dataDxfId="178"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{5EED8D90-47F3-4B1E-9D04-063C0EAF4083}" name="Table5" displayName="Table5" ref="A3:B6" headerRowCount="0" totalsRowShown="0" tableBorderDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{5EED8D90-47F3-4B1E-9D04-063C0EAF4083}" name="Table5" displayName="Table5" ref="A3:B6" headerRowCount="0" totalsRowShown="0" headerRowDxfId="275" tableBorderDxfId="279" totalsRowBorderDxfId="278">
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{138258F8-98C9-461E-9A94-73852E56A581}" name="Column1" headerRowDxfId="0" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{82275DC5-7E1C-4C8E-B852-AB361587F84B}" name="Column2" headerRowDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{138258F8-98C9-461E-9A94-73852E56A581}" name="Column1" headerRowDxfId="308" dataDxfId="277"/>
+    <tableColumn id="2" xr3:uid="{82275DC5-7E1C-4C8E-B852-AB361587F84B}" name="Column2" headerRowDxfId="307" dataDxfId="276"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table20.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="20" xr:uid="{03263CBB-FC5E-4A5C-8DDC-40433D937D0A}" name="Table20" displayName="Table20" ref="A183:B187" headerRowCount="0" totalsRowShown="0" headerRowDxfId="171" headerRowBorderDxfId="175" tableBorderDxfId="176" totalsRowBorderDxfId="174">
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{0DCADC0B-8199-4B81-A245-3DF71C660F8F}" name="Column1" headerRowDxfId="169" dataDxfId="173"/>
+    <tableColumn id="2" xr3:uid="{989F3FC4-B44C-421B-AD07-A6F8DF14838C}" name="Column2" headerRowDxfId="170" dataDxfId="172"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table21.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="21" xr:uid="{DCD5E383-9C90-48B7-8666-AB4B53A1E43A}" name="Table21" displayName="Table21" ref="A177:B181" headerRowCount="0" totalsRowShown="0" headerRowDxfId="162" tableBorderDxfId="166" totalsRowBorderDxfId="165">
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{5458FE45-3201-44AB-A5D7-50926A97F76A}" name="Column1" headerRowDxfId="167" dataDxfId="164"/>
+    <tableColumn id="2" xr3:uid="{96CCD1AF-CBBB-4D0D-AA2C-DD7C865C921D}" name="Column2" headerRowDxfId="168" dataDxfId="163"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table22.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="22" xr:uid="{4B8A2485-253F-4A73-9154-004DC6FBFBA1}" name="Table22" displayName="Table22" ref="A171:B175" headerRowCount="0" totalsRowShown="0" headerRowDxfId="155" tableBorderDxfId="159" totalsRowBorderDxfId="158">
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{304A5FD9-A2ED-40AE-8A02-F711DC767508}" name="Column1" headerRowDxfId="160" dataDxfId="157"/>
+    <tableColumn id="2" xr3:uid="{01CD9BF5-027B-4A5C-A9EF-EDC971BDEA91}" name="Column2" headerRowDxfId="161" dataDxfId="156"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table23.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="23" xr:uid="{1615CA1C-0D3C-4CD9-84B2-EF6187445E2E}" name="Table23" displayName="Table23" ref="A165:B169" headerRowCount="0" totalsRowShown="0" headerRowDxfId="148" tableBorderDxfId="152" totalsRowBorderDxfId="151">
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{E9552CE2-52BF-4B56-884F-0598FB284300}" name="Column1" headerRowDxfId="153" dataDxfId="150"/>
+    <tableColumn id="2" xr3:uid="{7730C957-1B71-46E9-8805-2C8A6DDD5568}" name="Column2" headerRowDxfId="154" dataDxfId="149"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table24.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="24" xr:uid="{7E050323-85AB-4F46-A3EB-562CF2F21065}" name="Table24" displayName="Table24" ref="A159:B163" headerRowCount="0" totalsRowShown="0" headerRowDxfId="141" tableBorderDxfId="145" totalsRowBorderDxfId="144">
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{A0FDCC97-FCF4-42D8-8C22-0A0E9638703D}" name="Column1" headerRowDxfId="146" dataDxfId="143"/>
+    <tableColumn id="2" xr3:uid="{A6F451BB-9AA5-47DB-8183-2D7D6D327D2C}" name="Column2" headerRowDxfId="147" dataDxfId="142"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table25.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="25" xr:uid="{EE6B703A-FED3-4535-87CD-76E40ECBB1DF}" name="Table25" displayName="Table25" ref="A141:B145" headerRowCount="0" totalsRowShown="0" headerRowDxfId="134" tableBorderDxfId="138" totalsRowBorderDxfId="137">
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{2F91D0FD-C108-4264-986C-ECE0D1A5038E}" name="Column1" headerRowDxfId="139" dataDxfId="136"/>
+    <tableColumn id="2" xr3:uid="{3402283B-9C35-4F33-AE10-D9E0324CD429}" name="Column2" headerRowDxfId="140" dataDxfId="135"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table26.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="26" xr:uid="{8B9A3667-530B-4534-9CD2-F2E827230F45}" name="Table26" displayName="Table26" ref="A147:B151" headerRowCount="0" totalsRowShown="0" headerRowDxfId="127" tableBorderDxfId="131" totalsRowBorderDxfId="130">
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{1D4D8A4D-E5EF-4AF5-8B33-7875B9F9B13C}" name="Column1" headerRowDxfId="132" dataDxfId="129"/>
+    <tableColumn id="2" xr3:uid="{291E25EF-9350-4827-97EC-04589C4F15D6}" name="Column2" headerRowDxfId="133" dataDxfId="128"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table27.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="27" xr:uid="{AEA31D6C-14D9-412E-B804-929C273D0D6C}" name="Table27" displayName="Table27" ref="A153:B157" headerRowCount="0" totalsRowShown="0" headerRowDxfId="120" tableBorderDxfId="124" totalsRowBorderDxfId="123">
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{DFA9EF7A-F9DA-4B86-BD51-991C32CA3DCB}" name="Column1" headerRowDxfId="125" dataDxfId="122"/>
+    <tableColumn id="2" xr3:uid="{A4FDF6F3-27BD-4C54-AAEC-D4949FFF43BA}" name="Column2" headerRowDxfId="126" dataDxfId="121"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table28.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="28" xr:uid="{B2EBC607-B074-4FA0-B7EF-925792B83130}" name="Table28" displayName="Table28" ref="A133:B137" headerRowCount="0" totalsRowShown="0" headerRowDxfId="113" tableBorderDxfId="117" totalsRowBorderDxfId="116">
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{6934AE42-67C8-45E1-8CE9-ED59FAB7665B}" name="Column1" headerRowDxfId="118" dataDxfId="115"/>
+    <tableColumn id="2" xr3:uid="{DC0CD11C-BCB6-4CA0-AC51-5EF43B890217}" name="Column2" headerRowDxfId="119" dataDxfId="114"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table29.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="29" xr:uid="{C14A0BA6-530D-4A36-A6FD-719BCCA178AC}" name="Table29" displayName="Table29" ref="A127:B131" headerRowCount="0" totalsRowShown="0" headerRowDxfId="106" tableBorderDxfId="110" totalsRowBorderDxfId="109">
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{809B5ABE-649E-4E3C-AED3-9D79E0341BBF}" name="Column1" headerRowDxfId="111" dataDxfId="108"/>
+    <tableColumn id="2" xr3:uid="{F2D49BA2-9E00-4B4D-A5B9-DBD7760DEFBD}" name="Column2" headerRowDxfId="112" dataDxfId="107"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8D957A15-0CF5-4A11-81DC-74A65193A20D}" name="Table1" displayName="Table1" ref="A18:B21" headerRowCount="0" totalsRowShown="0" headerRowDxfId="285" tableBorderDxfId="289" totalsRowBorderDxfId="288">
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{D77B885E-1C16-46B9-808E-F83AE9EFBA21}" name="Column1" headerRowDxfId="306" dataDxfId="287"/>
+    <tableColumn id="2" xr3:uid="{EB958D4C-8A29-4396-9C37-2C7B6766F917}" name="Column2" dataDxfId="286"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table30.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="30" xr:uid="{75159DBD-DF40-453E-A676-0C5F3C71A4C8}" name="Table30" displayName="Table30" ref="A121:B125" headerRowCount="0" totalsRowShown="0" headerRowDxfId="99" tableBorderDxfId="103" totalsRowBorderDxfId="102">
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{90959151-2016-4E97-B7B9-1F957C768845}" name="Column1" headerRowDxfId="104" dataDxfId="101"/>
+    <tableColumn id="2" xr3:uid="{BCE8AE65-0409-4DB6-8F2D-1101FC5D1B81}" name="Column2" headerRowDxfId="105" dataDxfId="100"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table31.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="31" xr:uid="{80F54516-16B1-4C88-8801-CE6D911125E5}" name="Table31" displayName="Table31" ref="A115:B119" headerRowCount="0" totalsRowShown="0" headerRowDxfId="92" tableBorderDxfId="96" totalsRowBorderDxfId="95">
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{D2696811-4184-40C2-86B4-4836CE1E36D4}" name="Column1" headerRowDxfId="97" dataDxfId="94"/>
+    <tableColumn id="2" xr3:uid="{5FD8C414-D208-40E1-9ACF-845C7D25A89E}" name="Column2" headerRowDxfId="98" dataDxfId="93"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table32.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="32" xr:uid="{BDBD7C31-C719-45BC-B6AD-E0B4476D3EDB}" name="Table32" displayName="Table32" ref="A109:B113" headerRowCount="0" totalsRowShown="0" headerRowDxfId="85" tableBorderDxfId="89" totalsRowBorderDxfId="88">
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{43660B67-791F-4C5E-A3CE-EE2BDFEB8BD5}" name="Column1" headerRowDxfId="90" dataDxfId="87"/>
+    <tableColumn id="2" xr3:uid="{D256E142-1673-4CE6-B5D6-C0DB3D8F7128}" name="Column2" headerRowDxfId="91" dataDxfId="86"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table33.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="33" xr:uid="{D089DECC-B2C3-4C28-9E22-FC4C6ACDD719}" name="Table33" displayName="Table33" ref="A103:B107" headerRowCount="0" totalsRowShown="0" headerRowDxfId="78" tableBorderDxfId="82" totalsRowBorderDxfId="81">
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{6D45F93E-F146-4833-9E82-AFC28AD4CE4E}" name="Column1" headerRowDxfId="83" dataDxfId="80"/>
+    <tableColumn id="2" xr3:uid="{D1F14761-F29A-48F2-A16A-C6E553D43350}" name="Column2" headerRowDxfId="84" dataDxfId="79"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table34.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="34" xr:uid="{4F1B5002-D35C-42A9-9F7A-030DB49F010F}" name="Table34" displayName="Table34" ref="A97:B101" headerRowCount="0" totalsRowShown="0" headerRowDxfId="71" tableBorderDxfId="75" totalsRowBorderDxfId="74">
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{DBD65220-BB48-4C7A-B651-9D8CC59C11C7}" name="Column1" headerRowDxfId="76" dataDxfId="73"/>
+    <tableColumn id="2" xr3:uid="{75CD3F3D-D3F4-44AF-B971-D027C7E03A87}" name="Column2" headerRowDxfId="77" dataDxfId="72"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table35.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="35" xr:uid="{0E603A29-5D6D-438C-B221-024F5F5F59D4}" name="Table35" displayName="Table35" ref="A91:B95" headerRowCount="0" totalsRowShown="0" headerRowDxfId="64" tableBorderDxfId="68" totalsRowBorderDxfId="67">
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{D08AE8B0-8F6E-48D0-A7DF-BC0CC6F9F983}" name="Column1" headerRowDxfId="69" dataDxfId="66"/>
+    <tableColumn id="2" xr3:uid="{B004F65A-A622-4A5B-91EB-CC4D6510F8EA}" name="Column2" headerRowDxfId="70" dataDxfId="65"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table36.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="36" xr:uid="{569B7CC0-E833-40A8-9A3E-C325F7F4322F}" name="Table36" displayName="Table36" ref="A85:B89" headerRowCount="0" totalsRowShown="0" headerRowDxfId="57" tableBorderDxfId="61" totalsRowBorderDxfId="60">
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{074FCD55-D84E-408F-BBF5-AD2E44222E81}" name="Column1" headerRowDxfId="62" dataDxfId="59"/>
+    <tableColumn id="2" xr3:uid="{0B7E62F3-37E4-4342-8F79-F93C22CDDDB5}" name="Column2" headerRowDxfId="63" dataDxfId="58"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table37.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="37" xr:uid="{E6DC37A9-538B-4B3B-9DA1-F3E366682EB1}" name="Table37" displayName="Table37" ref="A79:B83" headerRowCount="0" totalsRowShown="0" headerRowDxfId="51" headerRowBorderDxfId="55" tableBorderDxfId="56" totalsRowBorderDxfId="54">
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{1D71DD28-6321-407D-BA9F-4FF4331BCACE}" name="Column1" headerRowDxfId="49" dataDxfId="53"/>
+    <tableColumn id="2" xr3:uid="{FD0B7709-7FD2-4F3C-861E-AA95A973DAF9}" name="Column2" headerRowDxfId="50" dataDxfId="52"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table38.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="38" xr:uid="{6C900374-FF86-4079-A10F-4D0AAC18E104}" name="Table38" displayName="Table38" ref="A73:B77" headerRowCount="0" totalsRowShown="0" headerRowDxfId="42" tableBorderDxfId="46" totalsRowBorderDxfId="45">
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{026D3F22-37A6-4325-B574-C949685BD054}" name="Column1" headerRowDxfId="47" dataDxfId="44"/>
+    <tableColumn id="2" xr3:uid="{ADB08ABE-5A75-4144-BDEB-69E76A5C6FDB}" name="Column2" headerRowDxfId="48" dataDxfId="43"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table39.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="39" xr:uid="{D1609F85-080E-4A3C-9447-350B324611C7}" name="Table39" displayName="Table39" ref="A67:B71" headerRowCount="0" totalsRowShown="0" headerRowDxfId="35" tableBorderDxfId="39" totalsRowBorderDxfId="38">
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{B330B254-6D57-4640-9280-70DDF899C47E}" name="Column1" headerRowDxfId="40" dataDxfId="37"/>
+    <tableColumn id="2" xr3:uid="{64DD009D-0E79-46FC-8250-4050BC5882D0}" name="Column2" headerRowDxfId="41" dataDxfId="36"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{9C8A0162-3BE5-4A90-8828-00EF74D7BE3C}" name="Table2" displayName="Table2" ref="A23:B26" headerRowCount="0" totalsRowShown="0" headerRowDxfId="290" tableBorderDxfId="294" totalsRowBorderDxfId="293">
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{04F5FD82-E909-44C0-977E-BF0638AF7471}" name="Column1" headerRowDxfId="305" dataDxfId="292"/>
+    <tableColumn id="2" xr3:uid="{EE8828AB-D05F-4BEE-BD3D-208F98E33EDC}" name="Column2" dataDxfId="291"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table40.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="40" xr:uid="{6F96CB8D-EA0A-4C15-82AC-6FBE66487112}" name="Table40" displayName="Table40" ref="A61:B65" headerRowCount="0" totalsRowShown="0" headerRowDxfId="28" tableBorderDxfId="32" totalsRowBorderDxfId="31">
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{AFC23F75-7083-4883-AA2D-3285AF5DB9CA}" name="Column1" headerRowDxfId="33" dataDxfId="30"/>
+    <tableColumn id="2" xr3:uid="{19469AC9-0971-4E31-B3BE-F3E220EC9424}" name="Column2" headerRowDxfId="34" dataDxfId="29"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table41.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="41" xr:uid="{B36F1E4E-C3E1-4CB1-9208-3459BC51FAE9}" name="Table41" displayName="Table41" ref="A55:B59" headerRowCount="0" totalsRowShown="0" headerRowDxfId="21" tableBorderDxfId="25" totalsRowBorderDxfId="24">
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{52F4A30E-66B2-4461-9EF2-15B6F22C4F81}" name="Column1" headerRowDxfId="26" dataDxfId="23"/>
+    <tableColumn id="2" xr3:uid="{C2C5E27F-2DA7-4DCD-B8D1-B5F70E3BA4A2}" name="Column2" headerRowDxfId="27" dataDxfId="22"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table42.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="42" xr:uid="{1F04360E-60D6-4274-9696-70CFD2B65C51}" name="Table42" displayName="Table42" ref="A49:B53" headerRowCount="0" totalsRowShown="0" headerRowDxfId="14" tableBorderDxfId="18" totalsRowBorderDxfId="17">
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{2040CFC8-9361-4BEA-9755-A4A23510A845}" name="Column1" headerRowDxfId="19" dataDxfId="16"/>
+    <tableColumn id="2" xr3:uid="{6814D7CB-C636-4372-95FB-B079BF9A5DF5}" name="Column2" headerRowDxfId="20" dataDxfId="15"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table43.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="43" xr:uid="{3CBAEFB4-97BB-46BF-A8AA-3FC54B65CDC4}" name="Table43" displayName="Table43" ref="A43:B47" headerRowCount="0" totalsRowShown="0" headerRowDxfId="7" tableBorderDxfId="11" totalsRowBorderDxfId="10">
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{E5500BBF-77D9-4C85-81B7-40FE4D473D36}" name="Column1" headerRowDxfId="12" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{AB6FA890-C859-4F91-B10D-5506067F9DF5}" name="Column2" headerRowDxfId="13" dataDxfId="8"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table44.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="44" xr:uid="{28A6A6CE-F0C8-4C0C-9E65-98BDA754A5EC}" name="Table44" displayName="Table44" ref="A37:B41" headerRowCount="0" totalsRowShown="0" headerRowDxfId="0" tableBorderDxfId="4" totalsRowBorderDxfId="3">
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{F8E19D3F-EB26-4C6C-AD98-0727E9279E89}" name="Column1" headerRowDxfId="5" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{DD914611-C59A-4CD1-BD2D-63C16EB48FAE}" name="Column2" headerRowDxfId="6" dataDxfId="1"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{6B04DA78-7BBE-48CD-9000-F221137B1BA3}" name="Table3" displayName="Table3" ref="A8:B11" headerRowCount="0" totalsRowShown="0" headerRowDxfId="270" tableBorderDxfId="274" totalsRowBorderDxfId="273">
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{C26DA4D5-C9D5-4867-A142-86E25867EC06}" name="Column1" headerRowDxfId="303" dataDxfId="272"/>
+    <tableColumn id="2" xr3:uid="{26508FA8-6CD0-4B37-8EFC-CF42F9CFCFEE}" name="Column2" headerRowDxfId="304" dataDxfId="271"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{EEA530E5-E8AE-4816-BD7A-683BF0010222}" name="Table6" displayName="Table6" ref="A31:B35" headerRowCount="0" totalsRowShown="0" headerRowDxfId="297" headerRowBorderDxfId="301" tableBorderDxfId="302" totalsRowBorderDxfId="300">
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{B910003A-9A97-46D7-B8C7-C375B4886ADA}" name="Column1" headerRowDxfId="295" dataDxfId="299"/>
+    <tableColumn id="2" xr3:uid="{84DCB8AE-61FF-4D20-9329-DF62CBA6C896}" name="Column2" headerRowDxfId="296" dataDxfId="298"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{B77609AE-8A88-41A4-8BF9-11710B84F10A}" name="Table7" displayName="Table7" ref="A219:B223" headerRowCount="0" totalsRowShown="0" headerRowDxfId="259" tableBorderDxfId="263" totalsRowBorderDxfId="262">
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{6435FF08-FA2B-45EF-A92D-523C362C1A0B}" name="Column1" headerRowDxfId="268" dataDxfId="261"/>
+    <tableColumn id="2" xr3:uid="{B5833E8F-57C8-4E88-BAEA-834AC60DA40C}" name="Column2" headerRowDxfId="269" dataDxfId="260"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{CB49A9B5-7D91-4693-8DB8-BBB47E14802D}" name="Table79" displayName="Table79" ref="A225:B229" headerRowCount="0" totalsRowShown="0" headerRowDxfId="254" tableBorderDxfId="258" totalsRowBorderDxfId="257">
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{46377608-A6E8-4433-87CA-99CF96140955}" name="Column1" headerRowDxfId="267" dataDxfId="256"/>
+    <tableColumn id="2" xr3:uid="{E3C2BA39-7697-4615-80A7-37F85FA2D33D}" name="Column2" headerRowDxfId="266" dataDxfId="255"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{AAC8BF22-333D-4023-8F9B-147818215541}" name="Table7910" displayName="Table7910" ref="A231:B235" headerRowCount="0" totalsRowShown="0" headerRowDxfId="249" tableBorderDxfId="253" totalsRowBorderDxfId="252">
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{4646E1FD-86AD-4078-B6E7-B4DC846C0586}" name="Column1" headerRowDxfId="265" dataDxfId="251"/>
+    <tableColumn id="2" xr3:uid="{8642475B-B485-4D3F-B593-AC6B19CE66B4}" name="Column2" headerRowDxfId="264" dataDxfId="250"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -877,33 +7039,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B175"/>
+  <dimension ref="A1:B265"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A162" workbookViewId="0">
-      <selection activeCell="B172" sqref="B172"/>
+    <sheetView tabSelected="1" topLeftCell="A254" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.5546875" style="2" customWidth="1"/>
+    <col min="1" max="1" width="27.5546875" style="1" customWidth="1"/>
     <col min="2" max="2" width="109" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:2" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="5" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="6" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="7" t="s">
@@ -911,7 +7073,7 @@
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="6" t="s">
         <v>2</v>
       </c>
       <c r="B5" s="7" t="s">
@@ -919,15 +7081,15 @@
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="8" t="s">
         <v>0</v>
       </c>
       <c r="B8" s="5" t="s">
@@ -938,7 +7100,7 @@
       <c r="A9" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="7" t="s">
         <v>9</v>
       </c>
     </row>
@@ -946,7 +7108,7 @@
       <c r="A10" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="7" t="s">
         <v>10</v>
       </c>
     </row>
@@ -954,151 +7116,151 @@
       <c r="A11" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="4" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="5" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="7" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="7" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="4" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" s="2" t="s">
+      <c r="A18" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="5" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" s="2" t="s">
+      <c r="A19" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="7" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" s="2" t="s">
+      <c r="A20" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="7" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" s="2" t="s">
+      <c r="A21" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" s="2" t="s">
+      <c r="A23" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="5" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24" s="2" t="s">
+      <c r="A24" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="7" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25" s="2" t="s">
+      <c r="A25" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="7" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26" s="2" t="s">
+      <c r="A26" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="1:2" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A29" s="1" t="s">
+    <row r="29" spans="1:2" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+      <c r="A29" s="3" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A31" s="11" t="s">
+      <c r="A31" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B31" s="12" t="s">
+      <c r="B31" s="7" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A32" s="11" t="s">
+      <c r="A32" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B32" s="12" t="s">
+      <c r="B32" s="7" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A33" s="11" t="s">
+      <c r="A33" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B33" s="12"/>
+      <c r="B33" s="7"/>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A34" s="11" t="s">
+      <c r="A34" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B34" s="12" t="s">
+      <c r="B34" s="7" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A35" s="11" t="s">
+      <c r="A35" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="B35" s="12" t="s">
+      <c r="B35" s="4" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A37" s="3" t="s">
+      <c r="A37" s="8" t="s">
         <v>21</v>
       </c>
       <c r="B37" s="5" t="s">
@@ -1109,7 +7271,7 @@
       <c r="A38" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B38" s="8" t="s">
+      <c r="B38" s="7" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1117,7 +7279,7 @@
       <c r="A39" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B39" s="8" t="s">
+      <c r="B39" s="7" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1125,18 +7287,18 @@
       <c r="A40" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B40" s="8"/>
+      <c r="B40" s="7"/>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="B41" s="10" t="s">
+      <c r="B41" s="4" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A43" s="3" t="s">
+      <c r="A43" s="8" t="s">
         <v>21</v>
       </c>
       <c r="B43" s="5" t="s">
@@ -1147,7 +7309,7 @@
       <c r="A44" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B44" s="8" t="s">
+      <c r="B44" s="7" t="s">
         <v>47</v>
       </c>
     </row>
@@ -1155,13 +7317,13 @@
       <c r="A45" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B45" s="8"/>
+      <c r="B45" s="7"/>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B46" s="8" t="s">
+      <c r="B46" s="7" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1169,12 +7331,12 @@
       <c r="A47" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="B47" s="10" t="s">
+      <c r="B47" s="4" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A49" s="3" t="s">
+      <c r="A49" s="8" t="s">
         <v>21</v>
       </c>
       <c r="B49" s="5" t="s">
@@ -1185,7 +7347,7 @@
       <c r="A50" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B50" s="8" t="s">
+      <c r="B50" s="7" t="s">
         <v>49</v>
       </c>
     </row>
@@ -1193,13 +7355,13 @@
       <c r="A51" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B51" s="8"/>
+      <c r="B51" s="7"/>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B52" s="8" t="s">
+      <c r="B52" s="7" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1207,12 +7369,12 @@
       <c r="A53" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="B53" s="10" t="s">
+      <c r="B53" s="4" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A55" s="3" t="s">
+      <c r="A55" s="8" t="s">
         <v>21</v>
       </c>
       <c r="B55" s="5" t="s">
@@ -1223,7 +7385,7 @@
       <c r="A56" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B56" s="8" t="s">
+      <c r="B56" s="7" t="s">
         <v>51</v>
       </c>
     </row>
@@ -1231,7 +7393,7 @@
       <c r="A57" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B57" s="8" t="s">
+      <c r="B57" s="7" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1239,7 +7401,7 @@
       <c r="A58" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B58" s="8" t="s">
+      <c r="B58" s="7" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1247,12 +7409,12 @@
       <c r="A59" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="B59" s="10" t="s">
+      <c r="B59" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A61" s="3" t="s">
+      <c r="A61" s="8" t="s">
         <v>21</v>
       </c>
       <c r="B61" s="5" t="s">
@@ -1263,7 +7425,7 @@
       <c r="A62" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B62" s="8" t="s">
+      <c r="B62" s="7" t="s">
         <v>52</v>
       </c>
     </row>
@@ -1271,7 +7433,7 @@
       <c r="A63" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B63" s="8" t="s">
+      <c r="B63" s="7" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1279,18 +7441,18 @@
       <c r="A64" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B64" s="8"/>
+      <c r="B64" s="7"/>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="B65" s="10" t="s">
+      <c r="B65" s="4" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A67" s="3" t="s">
+      <c r="A67" s="8" t="s">
         <v>21</v>
       </c>
       <c r="B67" s="5" t="s">
@@ -1301,7 +7463,7 @@
       <c r="A68" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B68" s="8" t="s">
+      <c r="B68" s="7" t="s">
         <v>56</v>
       </c>
     </row>
@@ -1309,13 +7471,13 @@
       <c r="A69" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B69" s="8"/>
+      <c r="B69" s="7"/>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B70" s="8" t="s">
+      <c r="B70" s="7" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1323,12 +7485,12 @@
       <c r="A71" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="B71" s="10" t="s">
+      <c r="B71" s="4" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A73" s="3" t="s">
+      <c r="A73" s="8" t="s">
         <v>21</v>
       </c>
       <c r="B73" s="5" t="s">
@@ -1339,7 +7501,7 @@
       <c r="A74" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B74" s="8" t="s">
+      <c r="B74" s="7" t="s">
         <v>59</v>
       </c>
     </row>
@@ -1347,7 +7509,7 @@
       <c r="A75" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B75" s="8" t="s">
+      <c r="B75" s="7" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1355,21 +7517,21 @@
       <c r="A76" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B76" s="8"/>
+      <c r="B76" s="7"/>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="B77" s="10" t="s">
+      <c r="B77" s="4" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A79" s="3" t="s">
+      <c r="A79" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B79" s="5" t="s">
+      <c r="B79" s="7" t="s">
         <v>33</v>
       </c>
     </row>
@@ -1377,7 +7539,7 @@
       <c r="A80" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B80" s="8" t="s">
+      <c r="B80" s="7" t="s">
         <v>60</v>
       </c>
     </row>
@@ -1385,7 +7547,7 @@
       <c r="A81" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B81" s="8" t="s">
+      <c r="B81" s="7" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1393,18 +7555,18 @@
       <c r="A82" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B82" s="8"/>
+      <c r="B82" s="7"/>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="B83" s="10" t="s">
+      <c r="B83" s="4" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A85" s="3" t="s">
+      <c r="A85" s="8" t="s">
         <v>21</v>
       </c>
       <c r="B85" s="5" t="s">
@@ -1415,7 +7577,7 @@
       <c r="A86" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B86" s="8" t="s">
+      <c r="B86" s="7" t="s">
         <v>61</v>
       </c>
     </row>
@@ -1423,13 +7585,13 @@
       <c r="A87" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B87" s="8"/>
+      <c r="B87" s="7"/>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B88" s="8" t="s">
+      <c r="B88" s="7" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1437,12 +7599,12 @@
       <c r="A89" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="B89" s="10" t="s">
+      <c r="B89" s="4" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A91" s="3" t="s">
+      <c r="A91" s="8" t="s">
         <v>21</v>
       </c>
       <c r="B91" s="5" t="s">
@@ -1453,7 +7615,7 @@
       <c r="A92" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B92" s="8" t="s">
+      <c r="B92" s="7" t="s">
         <v>63</v>
       </c>
     </row>
@@ -1461,13 +7623,13 @@
       <c r="A93" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B93" s="8"/>
+      <c r="B93" s="7"/>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B94" s="8" t="s">
+      <c r="B94" s="7" t="s">
         <v>36</v>
       </c>
     </row>
@@ -1475,12 +7637,12 @@
       <c r="A95" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="B95" s="10" t="s">
+      <c r="B95" s="4" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A97" s="3" t="s">
+      <c r="A97" s="8" t="s">
         <v>21</v>
       </c>
       <c r="B97" s="5" t="s">
@@ -1491,7 +7653,7 @@
       <c r="A98" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B98" s="8" t="s">
+      <c r="B98" s="7" t="s">
         <v>64</v>
       </c>
     </row>
@@ -1499,7 +7661,7 @@
       <c r="A99" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B99" s="8" t="s">
+      <c r="B99" s="7" t="s">
         <v>36</v>
       </c>
     </row>
@@ -1507,16 +7669,16 @@
       <c r="A100" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B100" s="8"/>
+      <c r="B100" s="7"/>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A101" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="B101" s="10"/>
+      <c r="B101" s="4"/>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A103" s="3" t="s">
+      <c r="A103" s="8" t="s">
         <v>21</v>
       </c>
       <c r="B103" s="5" t="s">
@@ -1527,7 +7689,7 @@
       <c r="A104" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B104" s="8" t="s">
+      <c r="B104" s="7" t="s">
         <v>65</v>
       </c>
     </row>
@@ -1535,13 +7697,13 @@
       <c r="A105" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B105" s="8"/>
+      <c r="B105" s="7"/>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A106" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B106" s="8" t="s">
+      <c r="B106" s="7" t="s">
         <v>36</v>
       </c>
     </row>
@@ -1549,12 +7711,12 @@
       <c r="A107" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="B107" s="10" t="s">
+      <c r="B107" s="4" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A109" s="3" t="s">
+      <c r="A109" s="8" t="s">
         <v>21</v>
       </c>
       <c r="B109" s="5" t="s">
@@ -1565,7 +7727,7 @@
       <c r="A110" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B110" s="8" t="s">
+      <c r="B110" s="7" t="s">
         <v>67</v>
       </c>
     </row>
@@ -1573,13 +7735,13 @@
       <c r="A111" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B111" s="8"/>
+      <c r="B111" s="7"/>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A112" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B112" s="8" t="s">
+      <c r="B112" s="7" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1587,12 +7749,12 @@
       <c r="A113" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="B113" s="10" t="s">
+      <c r="B113" s="4" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A115" s="3" t="s">
+      <c r="A115" s="8" t="s">
         <v>21</v>
       </c>
       <c r="B115" s="5" t="s">
@@ -1603,7 +7765,7 @@
       <c r="A116" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B116" s="8" t="s">
+      <c r="B116" s="7" t="s">
         <v>69</v>
       </c>
     </row>
@@ -1611,7 +7773,7 @@
       <c r="A117" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B117" s="8" t="s">
+      <c r="B117" s="7" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1619,7 +7781,7 @@
       <c r="A118" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B118" s="8" t="s">
+      <c r="B118" s="7" t="s">
         <v>41</v>
       </c>
     </row>
@@ -1627,12 +7789,12 @@
       <c r="A119" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="B119" s="10" t="s">
+      <c r="B119" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A121" s="3" t="s">
+      <c r="A121" s="8" t="s">
         <v>21</v>
       </c>
       <c r="B121" s="5" t="s">
@@ -1643,7 +7805,7 @@
       <c r="A122" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B122" s="8" t="s">
+      <c r="B122" s="7" t="s">
         <v>71</v>
       </c>
     </row>
@@ -1651,7 +7813,7 @@
       <c r="A123" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B123" s="8" t="s">
+      <c r="B123" s="7" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1659,18 +7821,18 @@
       <c r="A124" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B124" s="8"/>
+      <c r="B124" s="7"/>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A125" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="B125" s="10" t="s">
+      <c r="B125" s="4" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A127" s="3" t="s">
+      <c r="A127" s="8" t="s">
         <v>21</v>
       </c>
       <c r="B127" s="5" t="s">
@@ -1681,7 +7843,7 @@
       <c r="A128" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B128" s="8" t="s">
+      <c r="B128" s="7" t="s">
         <v>73</v>
       </c>
     </row>
@@ -1689,13 +7851,13 @@
       <c r="A129" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B129" s="8"/>
+      <c r="B129" s="7"/>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A130" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B130" s="8" t="s">
+      <c r="B130" s="7" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1703,12 +7865,12 @@
       <c r="A131" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="B131" s="10" t="s">
+      <c r="B131" s="4" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A133" s="3" t="s">
+      <c r="A133" s="8" t="s">
         <v>21</v>
       </c>
       <c r="B133" s="5" t="s">
@@ -1719,7 +7881,7 @@
       <c r="A134" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B134" s="8" t="s">
+      <c r="B134" s="7" t="s">
         <v>75</v>
       </c>
     </row>
@@ -1727,13 +7889,13 @@
       <c r="A135" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B135" s="8"/>
+      <c r="B135" s="7"/>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A136" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B136" s="8" t="s">
+      <c r="B136" s="7" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1741,17 +7903,17 @@
       <c r="A137" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="B137" s="10" t="s">
+      <c r="B137" s="4" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="139" spans="1:2" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A139" s="1" t="s">
+    <row r="139" spans="1:2" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+      <c r="A139" s="3" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A141" s="3" t="s">
+      <c r="A141" s="8" t="s">
         <v>21</v>
       </c>
       <c r="B141" s="5" t="s">
@@ -1762,7 +7924,7 @@
       <c r="A142" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B142" s="8" t="s">
+      <c r="B142" s="7" t="s">
         <v>80</v>
       </c>
     </row>
@@ -1770,7 +7932,7 @@
       <c r="A143" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B143" s="8" t="s">
+      <c r="B143" s="7" t="s">
         <v>84</v>
       </c>
     </row>
@@ -1778,18 +7940,18 @@
       <c r="A144" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B144" s="8"/>
+      <c r="B144" s="7"/>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A145" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="B145" s="10" t="s">
+      <c r="B145" s="4" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A147" s="3" t="s">
+      <c r="A147" s="8" t="s">
         <v>21</v>
       </c>
       <c r="B147" s="5" t="s">
@@ -1800,7 +7962,7 @@
       <c r="A148" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B148" s="8" t="s">
+      <c r="B148" s="7" t="s">
         <v>83</v>
       </c>
     </row>
@@ -1808,13 +7970,13 @@
       <c r="A149" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B149" s="8"/>
+      <c r="B149" s="7"/>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A150" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B150" s="8" t="s">
+      <c r="B150" s="7" t="s">
         <v>84</v>
       </c>
     </row>
@@ -1822,12 +7984,12 @@
       <c r="A151" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="B151" s="10" t="s">
+      <c r="B151" s="4" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A153" s="3" t="s">
+      <c r="A153" s="8" t="s">
         <v>21</v>
       </c>
       <c r="B153" s="5" t="s">
@@ -1838,7 +8000,7 @@
       <c r="A154" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B154" s="8" t="s">
+      <c r="B154" s="7" t="s">
         <v>89</v>
       </c>
     </row>
@@ -1846,7 +8008,7 @@
       <c r="A155" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B155" s="8" t="s">
+      <c r="B155" s="7" t="s">
         <v>88</v>
       </c>
     </row>
@@ -1854,18 +8016,18 @@
       <c r="A156" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B156" s="8"/>
+      <c r="B156" s="7"/>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A157" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="B157" s="10" t="s">
+      <c r="B157" s="4" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A159" s="3" t="s">
+      <c r="A159" s="8" t="s">
         <v>21</v>
       </c>
       <c r="B159" s="5" t="s">
@@ -1876,7 +8038,7 @@
       <c r="A160" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B160" s="8" t="s">
+      <c r="B160" s="7" t="s">
         <v>90</v>
       </c>
     </row>
@@ -1884,13 +8046,13 @@
       <c r="A161" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B161" s="8"/>
+      <c r="B161" s="7"/>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A162" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B162" s="8" t="s">
+      <c r="B162" s="7" t="s">
         <v>88</v>
       </c>
     </row>
@@ -1898,12 +8060,12 @@
       <c r="A163" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="B163" s="10" t="s">
+      <c r="B163" s="4" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A165" s="3" t="s">
+      <c r="A165" s="8" t="s">
         <v>21</v>
       </c>
       <c r="B165" s="5" t="s">
@@ -1914,7 +8076,7 @@
       <c r="A166" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B166" s="8" t="s">
+      <c r="B166" s="7" t="s">
         <v>93</v>
       </c>
     </row>
@@ -1922,13 +8084,13 @@
       <c r="A167" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B167" s="8"/>
+      <c r="B167" s="7"/>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A168" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B168" s="8" t="s">
+      <c r="B168" s="7" t="s">
         <v>92</v>
       </c>
     </row>
@@ -1936,12 +8098,12 @@
       <c r="A169" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="B169" s="10" t="s">
+      <c r="B169" s="4" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A171" s="3" t="s">
+      <c r="A171" s="8" t="s">
         <v>21</v>
       </c>
       <c r="B171" s="5" t="s">
@@ -1952,7 +8114,7 @@
       <c r="A172" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B172" s="8" t="s">
+      <c r="B172" s="7" t="s">
         <v>95</v>
       </c>
     </row>
@@ -1960,13 +8122,13 @@
       <c r="A173" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B173" s="8"/>
+      <c r="B173" s="7"/>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A174" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B174" s="8" t="s">
+      <c r="B174" s="7" t="s">
         <v>92</v>
       </c>
     </row>
@@ -1974,8 +8136,596 @@
       <c r="A175" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="B175" s="10" t="s">
+      <c r="B175" s="4" t="s">
         <v>94</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A177" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B177" s="5" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A178" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B178" s="7" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A179" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B179" s="7"/>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A180" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B180" s="7" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A181" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B181" s="4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A183" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B183" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A184" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B184" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A185" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B185" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A186" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B186" s="10" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A187" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B187" s="11" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A189" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B189" s="5" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A190" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B190" s="7" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A191" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B191" s="10" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A192" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B192" s="7" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A193" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B193" s="4" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A195" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B195" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A196" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B196" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A197" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B197" s="10" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A198" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B198" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A199" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B199" s="11" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A201" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B201" s="5" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A202" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B202" s="7" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A203" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B203" s="7" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A204" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B204" s="10" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A205" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B205" s="4" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A207" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B207" s="5" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A208" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B208" s="7" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A209" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B209" s="7" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A210" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B210" s="7" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A211" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B211" s="4" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A213" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B213" s="7" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A214" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B214" s="7" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A215" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B215" s="7" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A216" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B216" s="7" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A217" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B217" s="4" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A219" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B219" s="5" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A220" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B220" s="7" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A221" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B221" s="7" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A222" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B222" s="7" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A223" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B223" s="4" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A225" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B225" s="5" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A226" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B226" s="7" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A227" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B227" s="7" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A228" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B228" s="7" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A229" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B229" s="4" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A231" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B231" s="5" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A232" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B232" s="7" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A233" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B233" s="7" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A234" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B234" s="7" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A235" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B235" s="4" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A237" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B237" s="5" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A238" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B238" s="7" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A239" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B239" s="7" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A240" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B240" s="7"/>
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A241" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B241" s="4"/>
+    </row>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A243" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B243" s="5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A244" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B244" s="7" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A245" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B245" s="7" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A246" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B246" s="7"/>
+    </row>
+    <row r="247" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A247" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B247" s="4" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A249" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B249" s="5" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A250" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B250" s="7" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A251" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B251" s="7" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A252" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B252" s="7" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A253" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B253" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A255" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B255" s="5" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A256" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B256" s="7" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A257" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B257" s="7" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A258" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B258" s="7"/>
+    </row>
+    <row r="259" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A259" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B259" s="4" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A261" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B261" s="5" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A262" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B262" s="7" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A263" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B263" s="7"/>
+    </row>
+    <row r="264" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A264" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B264" s="7" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A265" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B265" s="4" t="s">
+        <v>133</v>
       </c>
     </row>
   </sheetData>
@@ -1986,9 +8736,51 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-  <tableParts count="2">
+  <tableParts count="44">
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
+    <tablePart r:id="rId5"/>
+    <tablePart r:id="rId6"/>
+    <tablePart r:id="rId7"/>
+    <tablePart r:id="rId8"/>
+    <tablePart r:id="rId9"/>
+    <tablePart r:id="rId10"/>
+    <tablePart r:id="rId11"/>
+    <tablePart r:id="rId12"/>
+    <tablePart r:id="rId13"/>
+    <tablePart r:id="rId14"/>
+    <tablePart r:id="rId15"/>
+    <tablePart r:id="rId16"/>
+    <tablePart r:id="rId17"/>
+    <tablePart r:id="rId18"/>
+    <tablePart r:id="rId19"/>
+    <tablePart r:id="rId20"/>
+    <tablePart r:id="rId21"/>
+    <tablePart r:id="rId22"/>
+    <tablePart r:id="rId23"/>
+    <tablePart r:id="rId24"/>
+    <tablePart r:id="rId25"/>
+    <tablePart r:id="rId26"/>
+    <tablePart r:id="rId27"/>
+    <tablePart r:id="rId28"/>
+    <tablePart r:id="rId29"/>
+    <tablePart r:id="rId30"/>
+    <tablePart r:id="rId31"/>
+    <tablePart r:id="rId32"/>
+    <tablePart r:id="rId33"/>
+    <tablePart r:id="rId34"/>
+    <tablePart r:id="rId35"/>
+    <tablePart r:id="rId36"/>
+    <tablePart r:id="rId37"/>
+    <tablePart r:id="rId38"/>
+    <tablePart r:id="rId39"/>
+    <tablePart r:id="rId40"/>
+    <tablePart r:id="rId41"/>
+    <tablePart r:id="rId42"/>
+    <tablePart r:id="rId43"/>
+    <tablePart r:id="rId44"/>
+    <tablePart r:id="rId45"/>
   </tableParts>
 </worksheet>
 </file>